--- a/downloaded_files/MDPS352_Tutorial-35692.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35692.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم محسن ابراهيم موسى عبد الفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ibrahim Mohsen Ibrahim Moussa Abdelftah</x:t>
   </x:si>
   <x:si>
     <x:t>1230150</x:t>
@@ -479,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -870,7 +861,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4195617245</x:v>
+        <x:v>45912.0316074421</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -902,7 +893,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45912.0316074421</x:v>
+        <x:v>45906.6719637732</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -934,7 +925,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6719637732</x:v>
+        <x:v>45907.4256618056</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -966,7 +957,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4256618056</x:v>
+        <x:v>45907.6649270486</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -998,7 +989,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6649270486</x:v>
+        <x:v>45907.4286578704</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1030,7 +1021,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4286578704</x:v>
+        <x:v>45907.4149852199</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1062,7 +1053,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4149852199</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1094,7 +1085,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45907.4216175926</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1126,7 +1117,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4216175926</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1158,7 +1149,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.4141627662</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1190,7 +1181,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4141627662</x:v>
+        <x:v>45907.4186534722</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1222,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4186534722</x:v>
+        <x:v>45907.4231837963</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1254,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4231837963</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1286,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.4199939468</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1318,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4199939468</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1350,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1382,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45907.4202460995</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1414,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4202460995</x:v>
+        <x:v>45907.4162157407</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4162157407</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1478,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45907.4185231481</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1510,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4185231481</x:v>
+        <x:v>45907.4219669792</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1542,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4219669792</x:v>
+        <x:v>45918.3718171643</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.3718171643</x:v>
+        <x:v>45907.4203136574</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4203136574</x:v>
+        <x:v>45907.4189993056</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4189993056</x:v>
+        <x:v>45906.667030787</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.667030787</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4192552083</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4192552083</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45907.4197863426</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4197863426</x:v>
+        <x:v>45907.4252784722</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4252784722</x:v>
+        <x:v>45907.4176709838</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4176709838</x:v>
+        <x:v>45918.3618415856</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45918.3618415856</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45906.7512438657</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.7512438657</x:v>
+        <x:v>45907.4197487269</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2007,38 +1998,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45907.4197487269</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35692.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35692.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -346,15 +346,6 @@
   </x:si>
   <x:si>
     <x:t>Yehia Tarek El Sayed Sallam El Hendawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمود حسن محمود علي بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef Mahmoud Hassan Mahmoud Aly Badr</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -470,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1966,38 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.4197487269</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35692.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35692.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -292,15 +292,6 @@
   </x:si>
   <x:si>
     <x:t>Marwan Ahmed Hassan Said Moawad Abuelhassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان محمود عبدالعليم ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARAWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1230305</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1780,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4197863426</x:v>
+        <x:v>45907.4252784722</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4252784722</x:v>
+        <x:v>45907.4176709838</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4176709838</x:v>
+        <x:v>45918.3618415856</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45918.3618415856</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45906.7512438657</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45906.7512438657</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35692.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35692.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,15 +123,6 @@
     <x:t>Abdelrhman Mohamed abdelhamid farghaly</x:t>
   </x:si>
   <x:si>
-    <x:t>1230064</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله سعد السيد عبدالحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdalla Saad Elsayed Abdelhamid</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210257</x:t>
   </x:si>
   <x:si>
@@ -150,15 +141,6 @@
     <x:t>Omar Amgad Hassan Mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1230075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر عصام على شادي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Essam Ali shady</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230214</x:t>
   </x:si>
   <x:si>
@@ -238,15 +220,6 @@
   </x:si>
   <x:si>
     <x:t>Maya Ahmed Mohamed Zaki Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230097</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد ماهر فهمى محمد عيسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ahmed Maher</x:t>
   </x:si>
   <x:si>
     <x:t>1210074</x:t>
@@ -452,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1163,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4186534722</x:v>
+        <x:v>45907.4231837963</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1195,7 +1168,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4231837963</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.4206420949</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4199939468</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45907.4202460995</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45907.4162157407</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4202460995</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4162157407</x:v>
+        <x:v>45907.4185231481</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45907.4219669792</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4185231481</x:v>
+        <x:v>45918.3718171643</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4219669792</x:v>
+        <x:v>45907.4203136574</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.3718171643</x:v>
+        <x:v>45906.667030787</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4203136574</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4189993056</x:v>
+        <x:v>45907.4192552083</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.667030787</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4204639699</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4192552083</x:v>
+        <x:v>45907.4252784722</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45907.4176709838</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45918.3618415856</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4252784722</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1776,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4176709838</x:v>
+        <x:v>45906.7512438657</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,102 +1794,6 @@
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
     </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45918.3618415856</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.4194505787</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45906.7512438657</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1806,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Design (MDPS352) Location : [18202]18202-60-الجيزة الرئيسي Time : Tuesday(16:19)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MDPS352_Tutorial-35692.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35692.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -168,15 +168,6 @@
     <x:t>Omar Mostafa Ibrahim Elrayes</x:t>
   </x:si>
   <x:si>
-    <x:t>1230222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد محمود عبد الرؤف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Walid Mahmoud Abdelraouf</x:t>
-  </x:si>
-  <x:si>
     <x:t>4240039</x:t>
   </x:si>
   <x:si>
@@ -256,15 +247,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Yousry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان أحمد حسن سعيد معوض أبو الحسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Ahmed Hassan Said Moawad Abuelhassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230305</x:t>
@@ -425,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -733,8 +715,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.270625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.350625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="29.240625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="39.610625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1296,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4162157407</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45907.4185231481</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4185231481</x:v>
+        <x:v>45907.4219669792</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4219669792</x:v>
+        <x:v>45918.3718171643</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.3718171643</x:v>
+        <x:v>45907.4203136574</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4203136574</x:v>
+        <x:v>45906.667030787</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.667030787</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4192552083</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4192552083</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45907.4252784722</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4204639699</x:v>
+        <x:v>45907.4176709838</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4252784722</x:v>
+        <x:v>45918.3618415856</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4176709838</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45918.3618415856</x:v>
+        <x:v>45906.7512438657</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1729,70 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.4194505787</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45906.7512438657</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35692.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35692.xlsx
@@ -177,15 +177,6 @@
     <x:t>FAHD AMR MOHAMED ABUELNASR</x:t>
   </x:si>
   <x:si>
-    <x:t>1230081</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كريمان شريف رفاعى حسن رخا الاكوح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kariman Sherif Refaei Hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230229</x:t>
   </x:si>
   <x:si>
@@ -256,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> MARIAM EHAB NOBY SAYED ELSAWY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى محمد رامى محمود غالى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Mohamed Rami Mahmoud Ghaly</x:t>
   </x:si>
   <x:si>
     <x:t>1220207</x:t>
@@ -717,7 +717,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.240625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="39.610625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -926,7 +926,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4286578704</x:v>
+        <x:v>45927.4317968403</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1310,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4185231481</x:v>
+        <x:v>45907.4219669792</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4219669792</x:v>
+        <x:v>45918.3718171643</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.3718171643</x:v>
+        <x:v>45907.4203136574</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4203136574</x:v>
+        <x:v>45906.667030787</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.667030787</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4192552083</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4192552083</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45907.4252784722</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4252784722</x:v>
+        <x:v>45927.4405594097</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>

--- a/downloaded_files/MDPS352_Tutorial-35692.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35692.xlsx
@@ -1246,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4202460995</x:v>
+        <x:v>45927.8136034722</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>

--- a/downloaded_files/MDPS352_Tutorial-35692.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35692.xlsx
@@ -1630,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45918.3618415856</x:v>
+        <x:v>45928.4973076736</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>

--- a/downloaded_files/MDPS352_Tutorial-35692.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35692.xlsx
@@ -862,7 +862,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4256618056</x:v>
+        <x:v>45928.8100087963</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1502,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45928.9689430556</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4252784722</x:v>
+        <x:v>45928.7392195255</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/MDPS352_Tutorial-35692.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35692.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -141,15 +141,6 @@
     <x:t>Omar Amgad Hassan Mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1230214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد عبد الفتاح عوض</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar mohamed  abd el fattah Awed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230299</x:t>
   </x:si>
   <x:si>
@@ -159,15 +150,6 @@
     <x:t>Omar Mohamed Kamal</x:t>
   </x:si>
   <x:si>
-    <x:t>1230218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر مصطفى ابراهيم عبده الريس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mostafa Ibrahim Elrayes</x:t>
-  </x:si>
-  <x:si>
     <x:t>4240039</x:t>
   </x:si>
   <x:si>
@@ -265,15 +247,6 @@
   </x:si>
   <x:si>
     <x:t>moataz mohamed sabry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند احمد محمد قديره</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohanad ahmed mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220149</x:t>
@@ -407,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1182,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4206420949</x:v>
+        <x:v>45907.4180099537</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4180099537</x:v>
+        <x:v>45907.4201690162</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.8136034722</x:v>
+        <x:v>45907.4219669792</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4201690162</x:v>
+        <x:v>45918.3718171643</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4219669792</x:v>
+        <x:v>45907.4203136574</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.3718171643</x:v>
+        <x:v>45906.667030787</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4203136574</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.667030787</x:v>
+        <x:v>45907.4192552083</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45928.9689430556</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4192552083</x:v>
+        <x:v>45928.7392195255</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45928.9689430556</x:v>
+        <x:v>45927.4405594097</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45928.7392195255</x:v>
+        <x:v>45907.4176709838</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4405594097</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1571,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4176709838</x:v>
+        <x:v>45906.7512438657</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1615,102 +1588,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45928.4973076736</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45907.4194505787</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45906.7512438657</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35692.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35692.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Maya Ahmed Mohamed Zaki Ali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد حسنى حسن احمد محمد السحلى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Hosny Hassan Ahmed Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230106</x:t>
@@ -380,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -688,7 +679,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="29.240625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="27.580625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="39.610625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1315,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.667030787</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4192552083</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4192552083</x:v>
+        <x:v>45928.9689430556</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45928.9689430556</x:v>
+        <x:v>45928.7392195255</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45928.7392195255</x:v>
+        <x:v>45927.4405594097</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4405594097</x:v>
+        <x:v>45907.4176709838</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4176709838</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45906.7512438657</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1556,38 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.7512438657</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35692.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35692.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,15 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Yousry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم إيهاب نوبي الصاوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> MARIAM EHAB NOBY SAYED ELSAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1230259</x:t>
@@ -371,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1402,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45928.7392195255</x:v>
+        <x:v>45927.4405594097</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4405594097</x:v>
+        <x:v>45907.4176709838</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4176709838</x:v>
+        <x:v>45907.4194505787</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1489,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4194505787</x:v>
+        <x:v>45906.7512438657</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1515,38 +1506,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45906.7512438657</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Tutorial-35692.xlsx
+++ b/downloaded_files/MDPS352_Tutorial-35692.xlsx
@@ -72,7 +72,7 @@
     <x:t>1230179</x:t>
   </x:si>
   <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
+    <x:t>حمزة محمد سيد على على حسن</x:t>
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
